--- a/Bai_tap_SUM_AVERAGE_ROUND.xlsx
+++ b/Bai_tap_SUM_AVERAGE_ROUND.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dit me\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dit me\Downloads\nopbt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4C8892-A686-4225-8F80-B2ED8C0FF39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38ED877C-5532-482A-996A-E515607D726A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bai1_DiemTB" sheetId="1" r:id="rId1"/>
@@ -145,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -214,11 +214,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -957,7 +957,7 @@
         <v>6700000</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" ref="F3:F5" si="2">AVERAGE(B4:D4)</f>
+        <f t="shared" ref="F4:F5" si="2">AVERAGE(B4:D4)</f>
         <v>2233333.3333333335</v>
       </c>
       <c r="G4" s="3">
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
